--- a/data/trans_orig/P14A26-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A26-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{947915A8-549B-4435-8749-150485551183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24C9FA6C-38FE-4571-940E-2EE1090402E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{32E03493-99C8-4CCE-8C7E-DABA38B8DB2E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F7F6BDB3-3135-4BDF-91EB-99A99A7FC17E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="150">
   <si>
     <t>Población que recibe medicación o terapia por hipoacusia en 2012 (Tasa respuesta: 1,6%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>36,55%</t>
   </si>
   <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
   </si>
   <si>
     <t>32,48%</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
   </si>
   <si>
     <t>34,16%</t>
   </si>
   <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>63,45%</t>
   </si>
   <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
   </si>
   <si>
     <t>67,52%</t>
   </si>
   <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
   </si>
   <si>
     <t>65,84%</t>
   </si>
   <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
   </si>
   <si>
     <t>100%</t>
@@ -141,31 +141,31 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>32,04%</t>
+    <t>32,44%</t>
   </si>
   <si>
     <t>34,07%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
   </si>
   <si>
     <t>89,47%</t>
   </si>
   <si>
-    <t>67,96%</t>
+    <t>67,56%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -174,19 +174,19 @@
     <t>65,93%</t>
   </si>
   <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
   </si>
   <si>
     <t>78,66%</t>
   </si>
   <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -222,49 +222,55 @@
     <t>26,17%</t>
   </si>
   <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
   </si>
   <si>
     <t>28,33%</t>
   </si>
   <si>
-    <t>37,96%</t>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
   </si>
   <si>
     <t>73,83%</t>
   </si>
   <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
   </si>
   <si>
     <t>69,85%</t>
   </si>
   <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
   </si>
   <si>
     <t>71,67%</t>
   </si>
   <si>
-    <t>62,04%</t>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -276,10 +282,10 @@
     <t>41,52%</t>
   </si>
   <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
   </si>
   <si>
     <t>42,82%</t>
@@ -294,19 +300,19 @@
     <t>42,29%</t>
   </si>
   <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
   </si>
   <si>
     <t>58,48%</t>
   </si>
   <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
   </si>
   <si>
     <t>57,18%</t>
@@ -321,58 +327,64 @@
     <t>57,71%</t>
   </si>
   <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
   </si>
   <si>
     <t>37,39%</t>
   </si>
   <si>
-    <t>17,51%</t>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
   </si>
   <si>
     <t>30,23%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
   </si>
   <si>
     <t>33,29%</t>
   </si>
   <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
   </si>
   <si>
     <t>62,61%</t>
   </si>
   <si>
-    <t>82,49%</t>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
   </si>
   <si>
     <t>69,77%</t>
   </si>
   <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
   </si>
   <si>
     <t>66,71%</t>
   </si>
   <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
   </si>
   <si>
     <t>19,44%</t>
@@ -384,19 +396,19 @@
     <t>54,35%</t>
   </si>
   <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
   </si>
   <si>
     <t>41,94%</t>
   </si>
   <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
   </si>
   <si>
     <t>80,56%</t>
@@ -408,28 +420,28 @@
     <t>45,65%</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
   </si>
   <si>
     <t>58,06%</t>
   </si>
   <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
   </si>
   <si>
     <t>39,41%</t>
@@ -438,31 +450,31 @@
     <t>27,94%</t>
   </si>
   <si>
-    <t>52,53%</t>
+    <t>52,51%</t>
   </si>
   <si>
     <t>38,73%</t>
   </si>
   <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
   </si>
   <si>
     <t>60,59%</t>
   </si>
   <si>
-    <t>47,47%</t>
+    <t>47,49%</t>
   </si>
   <si>
     <t>72,06%</t>
@@ -471,10 +483,10 @@
     <t>61,27%</t>
   </si>
   <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
   </si>
 </sst>
 </file>
@@ -886,7 +898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190B49AA-0D28-4666-A06D-FB8C8BDCE6B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441CD1E6-8CDE-44D4-8E3C-BF5BFA282362}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1508,10 +1520,10 @@
         <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1526,13 +1538,13 @@
         <v>38968</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -1541,13 +1553,13 @@
         <v>43785</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>74</v>
@@ -1556,13 +1568,13 @@
         <v>82752</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1618,7 +1630,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1637,7 +1649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2B443E-25EE-4A3F-A63E-052E5A431A6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A442E1D-A0DF-4C2E-A8A9-829099AB458C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1654,7 +1666,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1761,13 +1773,13 @@
         <v>10102</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -1776,13 +1788,13 @@
         <v>15326</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -1791,13 +1803,13 @@
         <v>25428</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1812,13 +1824,13 @@
         <v>14229</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -1827,13 +1839,13 @@
         <v>20466</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -1842,13 +1854,13 @@
         <v>34695</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,13 +1928,13 @@
         <v>7511</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -1931,13 +1943,13 @@
         <v>8155</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -1946,13 +1958,13 @@
         <v>15665</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,13 +1979,13 @@
         <v>12576</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -1982,13 +1994,13 @@
         <v>18816</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -1997,13 +2009,13 @@
         <v>31392</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,13 +2083,13 @@
         <v>898</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2086,13 +2098,13 @@
         <v>4551</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2101,13 +2113,13 @@
         <v>5449</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,10 +2134,10 @@
         <v>3721</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>43</v>
@@ -2137,13 +2149,13 @@
         <v>3822</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2152,13 +2164,13 @@
         <v>7544</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,13 +2238,13 @@
         <v>18510</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -2241,13 +2253,13 @@
         <v>28032</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -2256,13 +2268,13 @@
         <v>46542</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,13 +2289,13 @@
         <v>30527</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H14" s="7">
         <v>38</v>
@@ -2292,13 +2304,13 @@
         <v>43104</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M14" s="7">
         <v>67</v>
@@ -2307,13 +2319,13 @@
         <v>73631</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,7 +2381,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A26-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A26-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24C9FA6C-38FE-4571-940E-2EE1090402E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4358C963-A069-4C42-9F30-1D74F53EAA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F7F6BDB3-3135-4BDF-91EB-99A99A7FC17E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{42C6437F-C676-46C2-A79B-C4ADBAF907AF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,28 +75,28 @@
     <t>36,55%</t>
   </si>
   <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
   </si>
   <si>
     <t>32,48%</t>
   </si>
   <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
   </si>
   <si>
     <t>34,16%</t>
   </si>
   <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>63,45%</t>
   </si>
   <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
   </si>
   <si>
     <t>67,52%</t>
   </si>
   <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
   </si>
   <si>
     <t>65,84%</t>
   </si>
   <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
   </si>
   <si>
     <t>100%</t>
@@ -141,31 +141,31 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>32,44%</t>
+    <t>28,43%</t>
   </si>
   <si>
     <t>34,07%</t>
   </si>
   <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
   </si>
   <si>
     <t>89,47%</t>
   </si>
   <si>
-    <t>67,56%</t>
+    <t>71,57%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -174,19 +174,19 @@
     <t>65,93%</t>
   </si>
   <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
   </si>
   <si>
     <t>78,66%</t>
   </si>
   <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -204,7 +204,7 @@
     <t>10,13%</t>
   </si>
   <si>
-    <t>50,39%</t>
+    <t>50,08%</t>
   </si>
   <si>
     <t>79,55%</t>
@@ -216,277 +216,277 @@
     <t>89,87%</t>
   </si>
   <si>
-    <t>49,61%</t>
+    <t>49,92%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
   </si>
   <si>
     <t>28,33%</t>
   </si>
   <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
   </si>
   <si>
     <t>73,83%</t>
   </si>
   <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
   </si>
   <si>
     <t>69,85%</t>
   </si>
   <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
   </si>
   <si>
     <t>71,67%</t>
   </si>
   <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por hipoacusia en 2015 (Tasa respuesta: 1,75%)</t>
+    <t>Población que recibe medicación o terapia por hipoacusia en 2016 (Tasa respuesta: 1,75%)</t>
   </si>
   <si>
     <t>41,52%</t>
   </si>
   <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
   </si>
   <si>
     <t>42,82%</t>
   </si>
   <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
   </si>
   <si>
     <t>42,29%</t>
   </si>
   <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
   </si>
   <si>
     <t>58,48%</t>
   </si>
   <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
   </si>
   <si>
     <t>57,18%</t>
   </si>
   <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
   </si>
   <si>
     <t>57,71%</t>
   </si>
   <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
   </si>
   <si>
     <t>37,39%</t>
   </si>
   <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
   </si>
   <si>
     <t>30,23%</t>
   </si>
   <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
   </si>
   <si>
     <t>33,29%</t>
   </si>
   <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
   </si>
   <si>
     <t>62,61%</t>
   </si>
   <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
   </si>
   <si>
     <t>69,77%</t>
   </si>
   <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
   </si>
   <si>
     <t>66,71%</t>
   </si>
   <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
   </si>
   <si>
     <t>19,44%</t>
   </si>
   <si>
-    <t>82,16%</t>
+    <t>77,47%</t>
   </si>
   <si>
     <t>54,35%</t>
   </si>
   <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>41,94%</t>
   </si>
   <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
   </si>
   <si>
     <t>80,56%</t>
   </si>
   <si>
-    <t>17,84%</t>
+    <t>22,53%</t>
   </si>
   <si>
     <t>45,65%</t>
   </si>
   <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
   </si>
   <si>
     <t>58,06%</t>
   </si>
   <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
   </si>
   <si>
     <t>39,41%</t>
   </si>
   <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
   </si>
   <si>
     <t>38,73%</t>
   </si>
   <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
   </si>
   <si>
     <t>60,59%</t>
   </si>
   <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
   </si>
   <si>
     <t>61,27%</t>
   </si>
   <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
   </si>
 </sst>
 </file>
@@ -898,7 +898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441CD1E6-8CDE-44D4-8E3C-BF5BFA282362}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C81A759-9887-4F4F-9715-B6069A45590A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1649,7 +1649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A442E1D-A0DF-4C2E-A8A9-829099AB458C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099D631F-FE78-4A45-AE9F-1BE31C3BBDDD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
